--- a/overall_socialmorality_score.xlsx
+++ b/overall_socialmorality_score.xlsx
@@ -564,7 +564,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>45.16871651304464</v>
+        <v>50.97913415962718</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2014</v>
       </c>
       <c r="C11" t="n">
-        <v>43.16871651304464</v>
+        <v>48.1769766592176</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>41.96871651304464</v>
+        <v>44.6921470602369</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>2016</v>
       </c>
       <c r="C13" t="n">
-        <v>41.56871651304464</v>
+        <v>42.57633878664399</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         <v>2019</v>
       </c>
       <c r="C16" t="n">
-        <v>40.76871651304464</v>
+        <v>41.2766861010291</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>2020</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16871651304464</v>
+        <v>41.7554098019719</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="C18" t="n">
-        <v>40.36871651304464</v>
+        <v>40.31135269799012</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2022</v>
       </c>
       <c r="C19" t="n">
-        <v>39.56871651304464</v>
+        <v>39.41439169888032</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2023</v>
       </c>
       <c r="C20" t="n">
-        <v>38.76871651304464</v>
+        <v>38.42919566988574</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2024</v>
       </c>
       <c r="C21" t="n">
-        <v>38.76871651304464</v>
+        <v>38.5324448857252</v>
       </c>
     </row>
     <row r="22">
@@ -824,7 +824,7 @@
         <v>2013</v>
       </c>
       <c r="C30" t="n">
-        <v>81.35154938652127</v>
+        <v>78.66303979786505</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2014</v>
       </c>
       <c r="C31" t="n">
-        <v>81.75154938652126</v>
+        <v>79.31066065834618</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>2015</v>
       </c>
       <c r="C32" t="n">
-        <v>82.55154938652126</v>
+        <v>82.00940073826811</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>82.55154938652126</v>
+        <v>82.56022324749594</v>
       </c>
     </row>
     <row r="34">
@@ -902,7 +902,7 @@
         <v>2019</v>
       </c>
       <c r="C36" t="n">
-        <v>82.15154938652125</v>
+        <v>82.11535463287225</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>2020</v>
       </c>
       <c r="C37" t="n">
-        <v>82.15154938652125</v>
+        <v>82.17865093484066</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>2021</v>
       </c>
       <c r="C38" t="n">
-        <v>82.15154938652125</v>
+        <v>82.37204118609901</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>2022</v>
       </c>
       <c r="C39" t="n">
-        <v>81.75154938652126</v>
+        <v>81.65559400070097</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>2023</v>
       </c>
       <c r="C40" t="n">
-        <v>81.35154938652127</v>
+        <v>81.2676477561732</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>2024</v>
       </c>
       <c r="C41" t="n">
-        <v>80.15154938652125</v>
+        <v>80.05727077672302</v>
       </c>
     </row>
     <row r="42">
@@ -1084,7 +1084,7 @@
         <v>2013</v>
       </c>
       <c r="C50" t="n">
-        <v>76.84070604916849</v>
+        <v>77.95744366737055</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>2014</v>
       </c>
       <c r="C51" t="n">
-        <v>77.6407060491685</v>
+        <v>77.15493229751416</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>2015</v>
       </c>
       <c r="C52" t="n">
-        <v>77.24070604916849</v>
+        <v>77.32900573535568</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         <v>2016</v>
       </c>
       <c r="C53" t="n">
-        <v>76.04070604916849</v>
+        <v>75.69433036797179</v>
       </c>
     </row>
     <row r="54">
@@ -1162,7 +1162,7 @@
         <v>2019</v>
       </c>
       <c r="C56" t="n">
-        <v>76.4407060491685</v>
+        <v>75.98502406207415</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>2020</v>
       </c>
       <c r="C57" t="n">
-        <v>76.84070604916849</v>
+        <v>76.37470270128536</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>2021</v>
       </c>
       <c r="C58" t="n">
-        <v>76.4407060491685</v>
+        <v>76.35624472910789</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>2022</v>
       </c>
       <c r="C59" t="n">
-        <v>76.4407060491685</v>
+        <v>76.34379942620097</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>2023</v>
       </c>
       <c r="C60" t="n">
-        <v>76.4407060491685</v>
+        <v>76.34697925525265</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C61" t="n">
-        <v>75.6407060491685</v>
+        <v>75.58081347683643</v>
       </c>
     </row>
     <row r="62">
@@ -1344,7 +1344,7 @@
         <v>2013</v>
       </c>
       <c r="C70" t="n">
-        <v>49.07521634628822</v>
+        <v>51.40750811389231</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>2014</v>
       </c>
       <c r="C71" t="n">
-        <v>49.47521634628822</v>
+        <v>49.87741555461429</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>2015</v>
       </c>
       <c r="C72" t="n">
-        <v>47.47521634628822</v>
+        <v>48.35727614027558</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>2016</v>
       </c>
       <c r="C73" t="n">
-        <v>48.27521634628822</v>
+        <v>49.52568808632466</v>
       </c>
     </row>
     <row r="74">
@@ -1422,7 +1422,7 @@
         <v>2019</v>
       </c>
       <c r="C76" t="n">
-        <v>46.27521634628822</v>
+        <v>45.8336035842044</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>2020</v>
       </c>
       <c r="C77" t="n">
-        <v>47.47521634628822</v>
+        <v>46.10540899399394</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>2021</v>
       </c>
       <c r="C78" t="n">
-        <v>47.47521634628822</v>
+        <v>45.20808420782126</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>2022</v>
       </c>
       <c r="C79" t="n">
-        <v>47.47521634628822</v>
+        <v>44.85594507419012</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>2023</v>
       </c>
       <c r="C80" t="n">
-        <v>46.67521634628822</v>
+        <v>43.79694547005852</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>2024</v>
       </c>
       <c r="C81" t="n">
-        <v>45.87521634628822</v>
+        <v>43.4435366409004</v>
       </c>
     </row>
     <row r="82">
@@ -1604,7 +1604,7 @@
         <v>2013</v>
       </c>
       <c r="C90" t="n">
-        <v>64.49926194964668</v>
+        <v>66.93728818889321</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>2014</v>
       </c>
       <c r="C91" t="n">
-        <v>64.89926194964669</v>
+        <v>64.89153033516274</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>2015</v>
       </c>
       <c r="C92" t="n">
-        <v>65.69926194964668</v>
+        <v>68.49545711070192</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         <v>2016</v>
       </c>
       <c r="C93" t="n">
-        <v>65.29926194964668</v>
+        <v>67.87177841487656</v>
       </c>
     </row>
     <row r="94">
@@ -1682,7 +1682,7 @@
         <v>2019</v>
       </c>
       <c r="C96" t="n">
-        <v>63.69926194964668</v>
+        <v>63.06831865070644</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>2020</v>
       </c>
       <c r="C97" t="n">
-        <v>62.89926194964669</v>
+        <v>61.81543821072985</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>2021</v>
       </c>
       <c r="C98" t="n">
-        <v>62.89926194964669</v>
+        <v>60.87610103486264</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>2022</v>
       </c>
       <c r="C99" t="n">
-        <v>62.49926194964668</v>
+        <v>60.57791332346188</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>2023</v>
       </c>
       <c r="C100" t="n">
-        <v>62.09926194964668</v>
+        <v>59.93465788558254</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>2024</v>
       </c>
       <c r="C101" t="n">
-        <v>61.69926194964668</v>
+        <v>60.7625887916528</v>
       </c>
     </row>
     <row r="102">
@@ -1864,7 +1864,7 @@
         <v>2013</v>
       </c>
       <c r="C110" t="n">
-        <v>78.96564318666928</v>
+        <v>77.35015897533029</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         <v>2014</v>
       </c>
       <c r="C111" t="n">
-        <v>79.76564318666928</v>
+        <v>77.95434261801589</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         <v>2015</v>
       </c>
       <c r="C112" t="n">
-        <v>80.96564318666927</v>
+        <v>80.40018842870454</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>2016</v>
       </c>
       <c r="C113" t="n">
-        <v>80.96564318666927</v>
+        <v>81.08131193585706</v>
       </c>
     </row>
     <row r="114">
@@ -1942,7 +1942,7 @@
         <v>2019</v>
       </c>
       <c r="C116" t="n">
-        <v>79.36564318666927</v>
+        <v>78.9432288157082</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>2020</v>
       </c>
       <c r="C117" t="n">
-        <v>79.36564318666927</v>
+        <v>78.12755669671112</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>2021</v>
       </c>
       <c r="C118" t="n">
-        <v>79.76564318666928</v>
+        <v>78.3239910909999</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>2022</v>
       </c>
       <c r="C119" t="n">
-        <v>77.76564318666928</v>
+        <v>76.4646420240874</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         <v>2023</v>
       </c>
       <c r="C120" t="n">
-        <v>76.96564318666928</v>
+        <v>75.45332941126597</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>2024</v>
       </c>
       <c r="C121" t="n">
-        <v>76.96564318666928</v>
+        <v>75.49882766867606</v>
       </c>
     </row>
     <row r="122">
@@ -2124,7 +2124,7 @@
         <v>2013</v>
       </c>
       <c r="C130" t="n">
-        <v>53.78399735707296</v>
+        <v>52.31728415887829</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>2014</v>
       </c>
       <c r="C131" t="n">
-        <v>55.38399735707296</v>
+        <v>53.70120606537947</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>2015</v>
       </c>
       <c r="C132" t="n">
-        <v>56.98399735707296</v>
+        <v>55.305192437705</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>2016</v>
       </c>
       <c r="C133" t="n">
-        <v>54.98399735707296</v>
+        <v>54.53570893697862</v>
       </c>
     </row>
     <row r="134">
@@ -2202,7 +2202,7 @@
         <v>2019</v>
       </c>
       <c r="C136" t="n">
-        <v>54.98399735707296</v>
+        <v>53.27068648262453</v>
       </c>
     </row>
     <row r="137">
@@ -2215,7 +2215,7 @@
         <v>2020</v>
       </c>
       <c r="C137" t="n">
-        <v>55.38399735707296</v>
+        <v>53.64596396621056</v>
       </c>
     </row>
     <row r="138">
@@ -2228,7 +2228,7 @@
         <v>2021</v>
       </c>
       <c r="C138" t="n">
-        <v>55.38399735707296</v>
+        <v>52.60981525613602</v>
       </c>
     </row>
     <row r="139">
@@ -2241,7 +2241,7 @@
         <v>2022</v>
       </c>
       <c r="C139" t="n">
-        <v>54.58399735707296</v>
+        <v>51.21512575035068</v>
       </c>
     </row>
     <row r="140">
@@ -2254,7 +2254,7 @@
         <v>2023</v>
       </c>
       <c r="C140" t="n">
-        <v>54.18399735707295</v>
+        <v>51.27235819894197</v>
       </c>
     </row>
     <row r="141">
@@ -2267,7 +2267,7 @@
         <v>2024</v>
       </c>
       <c r="C141" t="n">
-        <v>55.38399735707296</v>
+        <v>52.48422654086626</v>
       </c>
     </row>
     <row r="142">
@@ -2384,7 +2384,7 @@
         <v>2013</v>
       </c>
       <c r="C150" t="n">
-        <v>81.16149658646189</v>
+        <v>79.98214263389875</v>
       </c>
     </row>
     <row r="151">
@@ -2397,7 +2397,7 @@
         <v>2014</v>
       </c>
       <c r="C151" t="n">
-        <v>81.16149658646189</v>
+        <v>79.4424095823681</v>
       </c>
     </row>
     <row r="152">
@@ -2410,7 +2410,7 @@
         <v>2015</v>
       </c>
       <c r="C152" t="n">
-        <v>81.96149658646189</v>
+        <v>80.50852168745288</v>
       </c>
     </row>
     <row r="153">
@@ -2423,7 +2423,7 @@
         <v>2016</v>
       </c>
       <c r="C153" t="n">
-        <v>81.5614965864619</v>
+        <v>81.44759271359158</v>
       </c>
     </row>
     <row r="154">
@@ -2462,7 +2462,7 @@
         <v>2019</v>
       </c>
       <c r="C156" t="n">
-        <v>79.5614965864619</v>
+        <v>79.31803826859063</v>
       </c>
     </row>
     <row r="157">
@@ -2475,7 +2475,7 @@
         <v>2020</v>
       </c>
       <c r="C157" t="n">
-        <v>79.5614965864619</v>
+        <v>79.2431903013578</v>
       </c>
     </row>
     <row r="158">
@@ -2488,7 +2488,7 @@
         <v>2021</v>
       </c>
       <c r="C158" t="n">
-        <v>78.3614965864619</v>
+        <v>77.57350538099054</v>
       </c>
     </row>
     <row r="159">
@@ -2501,7 +2501,7 @@
         <v>2022</v>
       </c>
       <c r="C159" t="n">
-        <v>78.3614965864619</v>
+        <v>77.59303781737862</v>
       </c>
     </row>
     <row r="160">
@@ -2514,7 +2514,7 @@
         <v>2023</v>
       </c>
       <c r="C160" t="n">
-        <v>79.16149658646189</v>
+        <v>78.40055532031271</v>
       </c>
     </row>
     <row r="161">
@@ -2527,7 +2527,7 @@
         <v>2024</v>
       </c>
       <c r="C161" t="n">
-        <v>78.7614965864619</v>
+        <v>77.84012679693258</v>
       </c>
     </row>
     <row r="162">
@@ -2644,7 +2644,7 @@
         <v>2013</v>
       </c>
       <c r="C170" t="n">
-        <v>87.41594797529841</v>
+        <v>88.9939474373207</v>
       </c>
     </row>
     <row r="171">
@@ -2657,7 +2657,7 @@
         <v>2014</v>
       </c>
       <c r="C171" t="n">
-        <v>86.61594797529841</v>
+        <v>85.97620358826306</v>
       </c>
     </row>
     <row r="172">
@@ -2670,7 +2670,7 @@
         <v>2015</v>
       </c>
       <c r="C172" t="n">
-        <v>87.41594797529841</v>
+        <v>87.56813482966622</v>
       </c>
     </row>
     <row r="173">
@@ -2683,7 +2683,7 @@
         <v>2016</v>
       </c>
       <c r="C173" t="n">
-        <v>87.01594797529842</v>
+        <v>86.97684352155989</v>
       </c>
     </row>
     <row r="174">
@@ -2722,7 +2722,7 @@
         <v>2019</v>
       </c>
       <c r="C176" t="n">
-        <v>85.8159479752984</v>
+        <v>85.60578081603867</v>
       </c>
     </row>
     <row r="177">
@@ -2735,7 +2735,7 @@
         <v>2020</v>
       </c>
       <c r="C177" t="n">
-        <v>85.8159479752984</v>
+        <v>85.70442965498799</v>
       </c>
     </row>
     <row r="178">
@@ -2748,7 +2748,7 @@
         <v>2021</v>
       </c>
       <c r="C178" t="n">
-        <v>85.8159479752984</v>
+        <v>85.70771124552465</v>
       </c>
     </row>
     <row r="179">
@@ -2761,7 +2761,7 @@
         <v>2022</v>
       </c>
       <c r="C179" t="n">
-        <v>85.01594797529842</v>
+        <v>84.64527816334778</v>
       </c>
     </row>
     <row r="180">
@@ -2774,7 +2774,7 @@
         <v>2023</v>
       </c>
       <c r="C180" t="n">
-        <v>84.61594797529841</v>
+        <v>84.05143037531428</v>
       </c>
     </row>
     <row r="181">
@@ -2787,7 +2787,7 @@
         <v>2024</v>
       </c>
       <c r="C181" t="n">
-        <v>83.8159479752984</v>
+        <v>83.38295897427608</v>
       </c>
     </row>
     <row r="182">
@@ -2904,7 +2904,7 @@
         <v>2013</v>
       </c>
       <c r="C190" t="n">
-        <v>65.3402876019328</v>
+        <v>65.93878997635684</v>
       </c>
     </row>
     <row r="191">
@@ -2917,7 +2917,7 @@
         <v>2014</v>
       </c>
       <c r="C191" t="n">
-        <v>65.3402876019328</v>
+        <v>68.09269838170708</v>
       </c>
     </row>
     <row r="192">
@@ -2930,7 +2930,7 @@
         <v>2015</v>
       </c>
       <c r="C192" t="n">
-        <v>64.94028760193279</v>
+        <v>68.86283794615207</v>
       </c>
     </row>
     <row r="193">
@@ -2943,7 +2943,7 @@
         <v>2016</v>
       </c>
       <c r="C193" t="n">
-        <v>64.54028760193279</v>
+        <v>65.15853451582046</v>
       </c>
     </row>
     <row r="194">
@@ -2982,7 +2982,7 @@
         <v>2019</v>
       </c>
       <c r="C196" t="n">
-        <v>66.94028760193279</v>
+        <v>67.55660070995498</v>
       </c>
     </row>
     <row r="197">
@@ -2995,7 +2995,7 @@
         <v>2020</v>
       </c>
       <c r="C197" t="n">
-        <v>67.74028760193279</v>
+        <v>68.34341715777742</v>
       </c>
     </row>
     <row r="198">
@@ -3008,7 +3008,7 @@
         <v>2021</v>
       </c>
       <c r="C198" t="n">
-        <v>68.1402876019328</v>
+        <v>68.92652077037744</v>
       </c>
     </row>
     <row r="199">
@@ -3021,7 +3021,7 @@
         <v>2022</v>
       </c>
       <c r="C199" t="n">
-        <v>68.54028760193279</v>
+        <v>69.15213776358905</v>
       </c>
     </row>
     <row r="200">
@@ -3034,7 +3034,7 @@
         <v>2023</v>
       </c>
       <c r="C200" t="n">
-        <v>68.54028760193279</v>
+        <v>69.38555186192065</v>
       </c>
     </row>
     <row r="201">
@@ -3047,7 +3047,7 @@
         <v>2024</v>
       </c>
       <c r="C201" t="n">
-        <v>68.94028760193279</v>
+        <v>70.00705278013355</v>
       </c>
     </row>
     <row r="202">
@@ -3164,7 +3164,7 @@
         <v>2013</v>
       </c>
       <c r="C210" t="n">
-        <v>52.22293670800423</v>
+        <v>56.00357346796298</v>
       </c>
     </row>
     <row r="211">
@@ -3177,7 +3177,7 @@
         <v>2014</v>
       </c>
       <c r="C211" t="n">
-        <v>53.02293670800424</v>
+        <v>55.3298744388883</v>
       </c>
     </row>
     <row r="212">
@@ -3190,7 +3190,7 @@
         <v>2015</v>
       </c>
       <c r="C212" t="n">
-        <v>52.22293670800423</v>
+        <v>53.09293531341488</v>
       </c>
     </row>
     <row r="213">
@@ -3203,7 +3203,7 @@
         <v>2016</v>
       </c>
       <c r="C213" t="n">
-        <v>51.82293670800424</v>
+        <v>52.14621312949528</v>
       </c>
     </row>
     <row r="214">
@@ -3242,7 +3242,7 @@
         <v>2019</v>
       </c>
       <c r="C216" t="n">
-        <v>53.42293670800424</v>
+        <v>54.47571544863974</v>
       </c>
     </row>
     <row r="217">
@@ -3255,7 +3255,7 @@
         <v>2020</v>
       </c>
       <c r="C217" t="n">
-        <v>52.62293670800423</v>
+        <v>55.35709158060534</v>
       </c>
     </row>
     <row r="218">
@@ -3268,7 +3268,7 @@
         <v>2021</v>
       </c>
       <c r="C218" t="n">
-        <v>51.42293670800424</v>
+        <v>53.6839935765354</v>
       </c>
     </row>
     <row r="219">
@@ -3281,7 +3281,7 @@
         <v>2022</v>
       </c>
       <c r="C219" t="n">
-        <v>51.02293670800424</v>
+        <v>52.71071887112947</v>
       </c>
     </row>
     <row r="220">
@@ -3294,7 +3294,7 @@
         <v>2023</v>
       </c>
       <c r="C220" t="n">
-        <v>52.22293670800423</v>
+        <v>54.19878048483146</v>
       </c>
     </row>
     <row r="221">
@@ -3307,7 +3307,7 @@
         <v>2024</v>
       </c>
       <c r="C221" t="n">
-        <v>52.22293670800423</v>
+        <v>54.20613946139588</v>
       </c>
     </row>
   </sheetData>
